--- a/PHY 222/e by m/e by m - Data.xlsx
+++ b/PHY 222/e by m/e by m - Data.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IISER\Labs\PHY 222\e by m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237BAB36-BF1F-4B88-B3FA-6435DE53F96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEECCC7-EBAB-4C1D-8201-5611E319CCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
     <sheet name="Proper Data" sheetId="2" r:id="rId2"/>
     <sheet name="Export Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Raw Data S2" sheetId="4" r:id="rId4"/>
+    <sheet name="Export Data S2" sheetId="5" r:id="rId5"/>
+    <sheet name="Print Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Voltage</t>
   </si>
@@ -84,6 +87,96 @@
   </si>
   <si>
     <t>Current (A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9.000±0.141)×10⁻²    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8.500±0.141)×10⁻²    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8.000±0.141)×10⁻²    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7.400±0.141)×10⁻²   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6.800±0.141)×10⁻²  </t>
+  </si>
+  <si>
+    <t>(6.400±0.226)×10⁻³</t>
+  </si>
+  <si>
+    <t>(5.476±0.209)×10⁻³</t>
+  </si>
+  <si>
+    <t>(4.624±0.192)×10⁻³</t>
+  </si>
+  <si>
+    <t>(1.546±0.296)×10¹¹</t>
+  </si>
+  <si>
+    <t>(1.560±0.301)×10¹¹</t>
+  </si>
+  <si>
+    <t>(1.565±0.306)×10¹¹</t>
+  </si>
+  <si>
+    <t>(1.601±0.319)×10¹¹</t>
+  </si>
+  <si>
+    <t>(1.625±0.332)×10¹¹</t>
+  </si>
+  <si>
+    <t>(7.100±0.141)×10⁻²</t>
+  </si>
+  <si>
+    <t>(6.200±0.141)×10⁻²</t>
+  </si>
+  <si>
+    <t>(6.000±0.141)×10⁻²</t>
+  </si>
+  <si>
+    <t>(5.400±0.141)×10⁻²</t>
+  </si>
+  <si>
+    <t>(5.100±0.141)×10⁻²</t>
+  </si>
+  <si>
+    <t>(5.041±0.201)×10⁻³</t>
+  </si>
+  <si>
+    <t>(3.844±0.175)×10⁻³</t>
+  </si>
+  <si>
+    <t>(3.600±0.170)×10⁻³</t>
+  </si>
+  <si>
+    <t>(2.916±0.153)×10⁻³</t>
+  </si>
+  <si>
+    <t>(2.601±0.144)×10⁻³</t>
+  </si>
+  <si>
+    <t>(1.336±0.198)×10¹¹</t>
+  </si>
+  <si>
+    <t>(1.577±0.239)×10¹¹</t>
+  </si>
+  <si>
+    <t>(1.496±0.231)×10¹¹</t>
+  </si>
+  <si>
+    <t>(1.617±0.259)×10¹¹</t>
+  </si>
+  <si>
+    <t>(1.553±0.259)×10¹¹</t>
+  </si>
+  <si>
+    <t>(8.100±0.255)×10⁻³</t>
+  </si>
+  <si>
+    <t>(7.225±0.240)×10⁻³</t>
   </si>
 </sst>
 </file>
@@ -93,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +194,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -118,14 +225,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,7 +1028,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,4 +1371,788 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CAB75B-65AE-45E9-A0AC-A4685DFB4D83}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <v>13.2</v>
+      </c>
+      <c r="D2">
+        <v>6.1</v>
+      </c>
+      <c r="E2">
+        <f>(C2-D2)/100</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F2">
+        <f>E2*E2</f>
+        <v>5.0409999999999995E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G11" si="0">7576000*(A2/(B2^2*F2))</f>
+        <v>133589014525.3367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>180</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>12.9</v>
+      </c>
+      <c r="D3">
+        <v>6.7</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="1">(C3-D3)/100</f>
+        <v>6.2E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="2">E3*E3</f>
+        <v>3.8439999999999998E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>157669094693.02811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>160</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>149649382716.04938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>140</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>12.6</v>
+      </c>
+      <c r="D5">
+        <v>7.2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999992E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>2.9159999999999993E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>161658283798.20154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <v>12.4</v>
+      </c>
+      <c r="D6">
+        <v>7.3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2.6010000000000004E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>155345379982.05817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7">
+        <v>14.5</v>
+      </c>
+      <c r="D7">
+        <v>5.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>154596469747.98489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>180</v>
+      </c>
+      <c r="B8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>14.2</v>
+      </c>
+      <c r="D8">
+        <v>5.7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>7.2250000000000014E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>155987303039.83524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>160</v>
+      </c>
+      <c r="B9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9">
+        <v>13.9</v>
+      </c>
+      <c r="D9">
+        <v>5.9</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>156528925619.83469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>140</v>
+      </c>
+      <c r="B10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10">
+        <v>13.6</v>
+      </c>
+      <c r="D10">
+        <v>6.2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>5.4759999999999991E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>160073408230.65637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11">
+        <v>13.3</v>
+      </c>
+      <c r="D11">
+        <v>6.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>4.6240000000000005E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>162486773999.82837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1">
+        <f>AVERAGE(G2:G11)</f>
+        <v>154758403635.28131</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>175882000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <f>_xlfn.STDEV.P(G2:G11)</f>
+        <v>7895050897.4799881</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1">
+        <f>((J13-G13)/J13)*100</f>
+        <v>12.010095612239278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609EAA56-AD66-4BAC-82E5-68DC98F3DA25}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <v>13.2</v>
+      </c>
+      <c r="D2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>180</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>12.9</v>
+      </c>
+      <c r="D3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>160</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>140</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>12.6</v>
+      </c>
+      <c r="D5">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <v>12.4</v>
+      </c>
+      <c r="D6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7">
+        <v>14.5</v>
+      </c>
+      <c r="D7">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>180</v>
+      </c>
+      <c r="B8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>14.2</v>
+      </c>
+      <c r="D8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>160</v>
+      </c>
+      <c r="B9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9">
+        <v>13.9</v>
+      </c>
+      <c r="D9">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>140</v>
+      </c>
+      <c r="B10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10">
+        <v>13.6</v>
+      </c>
+      <c r="D10">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11">
+        <v>13.3</v>
+      </c>
+      <c r="D11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213F86ED-BAE6-4450-B649-25372C75A85D}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>200</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>180</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>160</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>140</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>120</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>200</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>180</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>160</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>140</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7">
+        <v>13.6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>120</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>